--- a/20240422 - Tabla de Coquimbo.xlsx
+++ b/20240422 - Tabla de Coquimbo.xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad San Sebastián\Tecnologia para la Gestion\Trabajo Regional Political Advise\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40829C2A-7FEA-4D9B-995D-BDF686A78F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B56BCF-6AC9-49AC-BB8D-4B16957D2724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C974AA60-66F7-45E3-A0F2-D4D2C36AC5C3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="571" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Hoja1!$F$2:$F$10</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Hoja1!$H$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Hoja1!$H$2:$H$10</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Hoja1!$F$2:$F$9</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Hoja1!$H$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Hoja1!$H$2:$H$9</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>Año</t>
   </si>
@@ -197,6 +205,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Porcentaje de</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> votos ganadores a traves de los Años en la comuna de Coquimbo</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -228,7 +266,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="6.2618569885793188E-2"/>
+          <c:y val="0.17705176385016366"/>
+          <c:w val="0.8936892341201792"/>
+          <c:h val="0.74639714567157334"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -272,7 +320,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="C00000"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -284,10 +332,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$2:$A$347</c:f>
+              <c:f>Hoja1!$A$2:$A$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="346"/>
+                <c:ptCount val="345"/>
                 <c:pt idx="0">
                   <c:v>1992</c:v>
                 </c:pt>
@@ -311,19 +359,16 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$H$2:$H$347</c:f>
+              <c:f>Hoja1!$H$2:$H$346</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="346"/>
+                <c:ptCount val="345"/>
                 <c:pt idx="0">
                   <c:v>15.841271096004112</c:v>
                 </c:pt>
@@ -545,7 +590,1122 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Cantidad de votos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> ganadores por año según partido</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9121-4E99-A3FE-B1CD9FD1D05C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-9121-4E99-A3FE-B1CD9FD1D05C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Hoja1!$A$2:$A$9,Hoja1!$F$2:$F$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>DC</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Indept</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Indept</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$G$2:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23477</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20437</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9121-4E99-A3FE-B1CD9FD1D05C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="164789487"/>
+        <c:axId val="164775759"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="164789487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Fuente:</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CL" baseline="0"/>
+                  <a:t> servel.cl - Resultados Electorales Históricos</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164775759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164775759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164789487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CL"/>
+              <a:t>Votos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CL" baseline="0"/>
+              <a:t> ganadores de la DC (1992 - 2012) </a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$G$2:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>8016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31851</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42981</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32531</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2359-4126-9639-C25893286BEA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="170696783"/>
+        <c:axId val="170693455"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="170696783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CL"/>
+                  <a:t>Fuente: servel.cl - Histori</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170693455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="170693455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="170696783"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:strDim type="cat">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:strDim>
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>Porcentaje de votos preferencial por partido </a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+              </a:rPr>
+              <a:t>(1992-2021)</a:t>
+            </a:r>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{970B0771-10FB-4325-934E-CF61CB9F9E7D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>Porcentaje</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataPt idx="1">
+            <cx:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </cx:spPr>
+          </cx:dataPt>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:aggregation/>
+          </cx:layoutPr>
+          <cx:axisId val="1"/>
+        </cx:series>
+        <cx:series layoutId="paretoLine" ownerIdx="0" uniqueId="{C8736BBD-AEF8-45FA-8DE0-3E8DBADAB733}">
+          <cx:axisId val="2"/>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:title>
+          <cx:tx>
+            <cx:txData>
+              <cx:v>Fuente: servel.cl - Resultados Electorales Históricos</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:txPr>
+            <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="es-ES" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:rPr>
+                <a:t>Fuente: servel.cl - Resultados Electorales Históricos</a:t>
+              </a:r>
+            </a:p>
+          </cx:txPr>
+        </cx:title>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="2">
+        <cx:valScaling max="1" min="0"/>
+        <cx:units unit="percentage"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1101,19 +2261,1546 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1134,6 +3821,156 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>17495</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>193221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>468475</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20605</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Gráfico 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2BA0CEB-1144-4DA8-91FB-F3A556FEDDBB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6480888" y="2137099"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="es-CL" sz="1100"/>
+                <a:t>Este gráfico no está disponible en su versión de Excel.
+Si edita esta forma o guarda el libro en un formato de archivo diferente, el gráfico no se podrá utilizar.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>313937</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>66870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>74840</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>88641</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3534C672-425C-44B1-81B0-1F06157493A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>479166</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>164064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>648283</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>185835</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F39F4A5B-541F-4DE8-926D-88DCF7CE4B70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1438,11 +4275,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57AA7848-7D73-4225-B5FC-FB71A24B3D98}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1786,23 +4623,6 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>2024</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
